--- a/Data/LifeTablesBO.xlsx
+++ b/Data/LifeTablesBO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/reub0367_ox_ac_uk/Documents/Placement/ModelScratch/Finish/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d55ae8e99a4268dc/Dokumente/GitHub/Dissertation_InterventionModelling/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A58E234D-C0B0-449A-B32B-1EF58271B154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E43512-D2F0-4B2E-9162-0034D85315D9}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A58E234D-C0B0-449A-B32B-1EF58271B154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AB1670F-5C6C-4E04-B5E6-6A16D8B7F422}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="14235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="1410" windowWidth="18780" windowHeight="10252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tx" sheetId="1" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1333,15 +1333,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1751,7 +1750,7 @@
   <dimension ref="A1:AH288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1765,8 +1764,8 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>405</v>
+      <c r="A2" s="7" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.45">
@@ -20400,7 +20399,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BD415E55-5F89-46A9-A8FE-60DFB2B8CB35}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3434FFAB-E16B-426E-9CFE-A697B691A103}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -20414,7 +20413,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20425,8 +20424,8 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>406</v>
+      <c r="A2" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.45">
@@ -20809,8 +20808,8 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>40</v>
+      <c r="F8" s="7" t="s">
+        <v>405</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -21771,10 +21770,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{540D077B-4463-4703-880D-2CF4B794B882}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{C7008408-7EF7-462A-BEF8-434DC4223453}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -21783,7 +21783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE36190-6369-4F3E-8C07-24366E2F5CD1}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
@@ -22090,97 +22090,97 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="7"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="7"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="7"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" s="7"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="7"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B38" s="7"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B39" s="7"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="7"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B43" s="7"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B44" s="7"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" s="5"/>
